--- a/bike_accidents.xlsx
+++ b/bike_accidents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliav\Documents\DataViz\Project\Bikes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliav\Documents\DataViz\Project\Bikes\BikeAccidentMapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D82F32-FC00-4FC1-B9F2-246A36BA2C98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE14163-01C0-4119-8B15-C126BD72C001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/bike_accidents.xlsx
+++ b/bike_accidents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliav\Documents\DataViz\Project\Bikes\BikeAccidentMapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE14163-01C0-4119-8B15-C126BD72C001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE624731-6A16-4472-B519-AC87C2C1C953}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="185">
   <si>
     <t>סוג פגיעה</t>
   </si>
@@ -60,9 +60,6 @@
     <t>ראשון לציון</t>
   </si>
   <si>
-    <t>חשמליים</t>
-  </si>
-  <si>
     <t>הרוג</t>
   </si>
   <si>
@@ -96,18 +93,12 @@
     <t>https://haipo.co.il/item/101476</t>
   </si>
   <si>
-    <t>בינוני עד קשה</t>
-  </si>
-  <si>
     <t>אנוש</t>
   </si>
   <si>
     <t>כביש 5</t>
   </si>
   <si>
-    <t>מחלף ראש העין</t>
-  </si>
-  <si>
     <t>http://mynetroshhaayin.co.il/article/304000/3</t>
   </si>
   <si>
@@ -327,9 +318,6 @@
     <t>http://mynetpetahtikva.co.il/article/315327/7</t>
   </si>
   <si>
-    <t>16/09/2018</t>
-  </si>
-  <si>
     <t>הציונות</t>
   </si>
   <si>
@@ -339,9 +327,6 @@
     <t>בינוני-קשה</t>
   </si>
   <si>
-    <t>17/09/2018</t>
-  </si>
-  <si>
     <t>אם המושבות</t>
   </si>
   <si>
@@ -360,24 +345,12 @@
     <t>http://www.ch10.co.il/news/459401/</t>
   </si>
   <si>
-    <t>22/09/2018</t>
-  </si>
-  <si>
-    <t>20/09/2018</t>
-  </si>
-  <si>
-    <t>24/09/2018</t>
-  </si>
-  <si>
     <t>סח'נין</t>
   </si>
   <si>
     <t>http://www.maariv.co.il/breaking-news/Article-662363</t>
   </si>
   <si>
-    <t>רוקח</t>
-  </si>
-  <si>
     <t>https://www.ynet.co.il/articles/0,7340,L-5356969,00.html</t>
   </si>
   <si>
@@ -390,9 +363,6 @@
     <t>בלפור פינת יצחק שדה</t>
   </si>
   <si>
-    <t>27/09/2018</t>
-  </si>
-  <si>
     <t>הרב אהרונסון</t>
   </si>
   <si>
@@ -405,9 +375,6 @@
     <t>כביש 60</t>
   </si>
   <si>
-    <t>28/09/2018</t>
-  </si>
-  <si>
     <t>http://www.maariv.co.il/breaking-news/Article-662984</t>
   </si>
   <si>
@@ -441,9 +408,6 @@
     <t>עזרא</t>
   </si>
   <si>
-    <t>צומת נאות אשקלון</t>
-  </si>
-  <si>
     <t>מחלף שעריה</t>
   </si>
   <si>
@@ -463,15 +427,165 @@
   </si>
   <si>
     <t>מחלף רמלה לוד</t>
+  </si>
+  <si>
+    <t>חבלת ראש</t>
+  </si>
+  <si>
+    <t>עמודה1</t>
+  </si>
+  <si>
+    <t>https://www.mivzaklive.co.il/archives/207999; http://www.local.co.il/document/52,93,156594.aspx</t>
+  </si>
+  <si>
+    <t>https://www.mivzaklive.co.il/archives/208169</t>
+  </si>
+  <si>
+    <t>התחייה</t>
+  </si>
+  <si>
+    <t>חבלות בגפיים</t>
+  </si>
+  <si>
+    <t>שדרות</t>
+  </si>
+  <si>
+    <t>https://www.0404.co.il/?p=258460</t>
+  </si>
+  <si>
+    <t>https://www.hashikma-rishon.co.il/news/14850</t>
+  </si>
+  <si>
+    <t>דוד סחרוב</t>
+  </si>
+  <si>
+    <t>16/7/18</t>
+  </si>
+  <si>
+    <t>13/7/18</t>
+  </si>
+  <si>
+    <t>23/7/18</t>
+  </si>
+  <si>
+    <t>25/7/18</t>
+  </si>
+  <si>
+    <t>26/7/18</t>
+  </si>
+  <si>
+    <t>29/7/18</t>
+  </si>
+  <si>
+    <t>15/8/18</t>
+  </si>
+  <si>
+    <t>16/8/18</t>
+  </si>
+  <si>
+    <t>18/8/18</t>
+  </si>
+  <si>
+    <t>22/8/18</t>
+  </si>
+  <si>
+    <t>24/8/18</t>
+  </si>
+  <si>
+    <t>29/8/18</t>
+  </si>
+  <si>
+    <t>30/8/18</t>
+  </si>
+  <si>
+    <t>31/8/18</t>
+  </si>
+  <si>
+    <t>13/9/18</t>
+  </si>
+  <si>
+    <t>15/9/18</t>
+  </si>
+  <si>
+    <t>16/9/18</t>
+  </si>
+  <si>
+    <t>17/9/18</t>
+  </si>
+  <si>
+    <t>20/9/18</t>
+  </si>
+  <si>
+    <t>22/9/18</t>
+  </si>
+  <si>
+    <t>24/9/18</t>
+  </si>
+  <si>
+    <t>27/9/18</t>
+  </si>
+  <si>
+    <t>28/9/18</t>
+  </si>
+  <si>
+    <t>30/9/18</t>
+  </si>
+  <si>
+    <t>8/7/18</t>
+  </si>
+  <si>
+    <t>6/7/18</t>
+  </si>
+  <si>
+    <t>7/7/18</t>
+  </si>
+  <si>
+    <t>5/7/18</t>
+  </si>
+  <si>
+    <t>1/8/18</t>
+  </si>
+  <si>
+    <t>3/8/18</t>
+  </si>
+  <si>
+    <t>4/8/18</t>
+  </si>
+  <si>
+    <t>12/8/18</t>
+  </si>
+  <si>
+    <t>2/9/18</t>
+  </si>
+  <si>
+    <t>11/9/18</t>
+  </si>
+  <si>
+    <t>12/9/18</t>
+  </si>
+  <si>
+    <t>2/10/18</t>
+  </si>
+  <si>
+    <t>3/10/18</t>
+  </si>
+  <si>
+    <t>5/10/18</t>
+  </si>
+  <si>
+    <t>שדרות רוקח</t>
+  </si>
+  <si>
+    <t>מחלף ראש העין מזרח</t>
+  </si>
+  <si>
+    <t>דוד בן גוריון</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,13 +640,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +657,8 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,9 +674,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H51" totalsRowShown="0">
-  <autoFilter ref="A1:H51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I55" totalsRowShown="0">
+  <autoFilter ref="A1:I55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="סוג פגיעה"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="תאריך" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="גיל"/>
@@ -567,6 +685,7 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="עיר או כביש"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="לינק"/>
     <tableColumn id="8" xr3:uid="{A42F9D2B-018B-4009-A6E7-8CA9A104FE56}" name="כתובת מדוייק"/>
+    <tableColumn id="9" xr3:uid="{D1599986-8D5A-4E51-BAB8-858AF2D13AE6}" name="עמודה1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -835,27 +954,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
@@ -874,18 +993,21 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4">
-        <v>43297</v>
+      <c r="B2" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -897,1158 +1019,1256 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4">
-        <v>43289</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4">
-        <v>43297</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4">
-        <v>43297</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C5">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4">
-        <v>43294</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4">
-        <v>43287</v>
+      <c r="B7" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
-        <v>43288</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="C8">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4">
-        <v>43286</v>
+        <v>99</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="C9">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
-        <v>43304</v>
+      <c r="B10" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="C10">
         <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4">
-        <v>43306</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C11">
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4">
-        <v>43307</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C12">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4">
-        <v>43310</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C13">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="4">
-        <v>43310</v>
+      <c r="B14" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
       <c r="H14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4">
-        <v>43313</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C15">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4">
-        <v>43315</v>
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="C16">
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4">
-        <v>43316</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4">
-        <v>43316</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="C18">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="4">
-        <v>43324</v>
+      <c r="B19" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="C19">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4">
-        <v>43327</v>
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C20">
         <v>20</v>
       </c>
       <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="4">
-        <v>43327</v>
+      <c r="B21" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4">
-        <v>43328</v>
+        <v>11</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
         <v>58</v>
       </c>
-      <c r="E22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4">
-        <v>43330</v>
+        <v>41</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="C23">
         <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="4">
-        <v>43334</v>
+        <v>17</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="C24">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="4">
-        <v>43334</v>
+        <v>17</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="C25">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="4">
-        <v>43336</v>
+        <v>11</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="C26">
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="4">
-        <v>43341</v>
+        <v>17</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C27">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="4">
-        <v>43342</v>
+        <v>17</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C28">
         <v>16</v>
       </c>
       <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="4">
-        <v>43342</v>
+        <v>17</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C29">
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="4">
-        <v>43343</v>
+        <v>11</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C30">
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="4">
-        <v>43343</v>
+        <v>17</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C31">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="4">
-        <v>43343</v>
+      <c r="B32" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C32">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="4">
-        <v>43345</v>
+        <v>41</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="C33">
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="4">
-        <v>43345</v>
+        <v>11</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="C34">
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="4">
-        <v>43354</v>
+      <c r="B35" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="C35">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="4">
-        <v>43355</v>
+      <c r="B36" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="4">
-        <v>43356</v>
+        <v>17</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C37">
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="4">
-        <v>43356</v>
+        <v>17</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C38">
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="4">
-        <v>43358</v>
+        <v>17</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="C39">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="4">
-        <v>43359</v>
+        <v>17</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C40">
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C41">
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="C42">
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>104</v>
+      <c r="B43" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C43">
         <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="C44">
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>111</v>
+        <v>17</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="C45">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>113</v>
+        <v>17</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C46">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G46" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>113</v>
+        <v>11</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C47">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>113</v>
+        <v>17</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C48">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="C49">
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H49" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>121</v>
+        <v>17</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="C50">
         <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>126</v>
+      <c r="B51" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C51">
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F51" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" t="s">
+        <v>137</v>
+      </c>
+      <c r="I53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>142</v>
+      </c>
+      <c r="I55" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
